--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -47,10 +47,13 @@
     <t>Catering</t>
   </si>
   <si>
-    <t>Overtime</t>
-  </si>
-  <si>
     <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -94,9 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,52 +382,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I3"/>
+  <dimension ref="A3:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -385,12 +385,12 @@
   <dimension ref="A3:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -392,13 +392,13 @@
   <cols>
     <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
